--- a/big5.xlsx
+++ b/big5.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.264443184989219</v>
+        <v>1.264443184988986</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +429,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -441,101 +446,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.823448876146346</v>
+      <c r="C2">
+        <v>1.823448876146344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.03101824622291845</v>
+      <c r="C3">
+        <v>-0.03101824622291885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.01359999767907198</v>
+      <c r="C4">
+        <v>-0.01359999767907419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.06374327059025642</v>
+      <c r="C5">
+        <v>0.06374327059025679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.03551685609152135</v>
+      <c r="C6">
+        <v>0.03551685609152044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.009594878457205108</v>
+      <c r="C7">
+        <v>-0.009594878457203774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.2604461069701368</v>
+      <c r="C8">
+        <v>0.2604461069701375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.07304361535182546</v>
+      <c r="C9">
+        <v>0.07304361535182699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.1061227171353248</v>
+      <c r="C10">
+        <v>0.1061227171353254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.0007353551441608985</v>
+      <c r="C11">
+        <v>0.0007353551441606395</v>
       </c>
     </row>
     <row r="12">
@@ -544,8 +599,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1.149340963386423</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1.149340963386428</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +615,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,10 +624,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -576,111 +641,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>3.27893291045709</v>
+      <c r="C2">
+        <v>3.278932910457077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.08530515778748432</v>
+      <c r="C3">
+        <v>-0.08530515778748447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.07585935061339585</v>
+      <c r="C4">
+        <v>0.07585935061339534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.1117263090915864</v>
+      <c r="C5">
+        <v>0.1117263090915873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.02440743675990459</v>
+      <c r="C6">
+        <v>0.02440743675990273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.05359808752024943</v>
+      <c r="C7">
+        <v>0.05359808752024539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>-0.02888160230255421</v>
+      <c r="C8">
+        <v>-0.02888160230255573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.02777360757219283</v>
+      <c r="C9">
+        <v>-0.02777360757219267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.07599589206797375</v>
+      <c r="C10">
+        <v>-0.07599589206797495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.04075681104125404</v>
+      <c r="C11">
+        <v>-0.04075681104125503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.08300068292686724</v>
+      <c r="C12">
+        <v>0.08300068292686889</v>
       </c>
     </row>
     <row r="13">
@@ -689,8 +809,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1.304089230218846</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1.304089230218844</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +825,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +834,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -721,121 +851,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.766569996198516</v>
+      <c r="C2">
+        <v>1.766569996198514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.04656524496111369</v>
+      <c r="C3">
+        <v>0.04656524496111112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.04319333455967134</v>
+      <c r="C4">
+        <v>0.04319333455967331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.2428239818050383</v>
+      <c r="C5">
+        <v>0.2428239818050397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.03097894009677674</v>
+      <c r="C6">
+        <v>-0.03097894009677608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.1572665493594537</v>
+      <c r="C7">
+        <v>0.1572665493594532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>-0.0191565611361135</v>
+      <c r="C8">
+        <v>-0.0191565611361122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.05089739980379476</v>
+      <c r="C9">
+        <v>0.0508973998037978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.09872881823020641</v>
+      <c r="C10">
+        <v>-0.09872881823020742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.004014122457846492</v>
+      <c r="C11">
+        <v>0.004014122457847743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.01436245859143959</v>
+      <c r="C12">
+        <v>0.01436245859143786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.1659328626723955</v>
+      <c r="C13">
+        <v>0.1659328626723936</v>
       </c>
     </row>
     <row r="14">
@@ -844,8 +1034,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.9853346768041498</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.9853346768041608</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,10 +1059,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -876,131 +1076,196 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2.482574524062461</v>
+      <c r="C2">
+        <v>2.482574524062477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.1032376016142741</v>
+      <c r="C3">
+        <v>-0.1032376016142745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.1073348098002034</v>
+      <c r="C4">
+        <v>-0.1073348098002016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.09561971320572971</v>
+      <c r="C5">
+        <v>0.09561971320572969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.009956416469552476</v>
+      <c r="C6">
+        <v>0.009956416469552554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.008983596377469816</v>
+      <c r="C7">
+        <v>0.008983596377471564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.01591784065038399</v>
+      <c r="C8">
+        <v>0.0159178406503818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.0136327392578024</v>
+      <c r="C9">
+        <v>-0.01363273925780189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.05016876873681953</v>
+      <c r="C10">
+        <v>0.05016876873682265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.02112712618462996</v>
+      <c r="C11">
+        <v>0.02112712618462777</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.0595571400773886</v>
+      <c r="C12">
+        <v>0.05955714007739019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.1750643403236083</v>
+      <c r="C13">
+        <v>0.1750643403236095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.1264700562400964</v>
+      <c r="C14">
+        <v>0.1264700562400972</v>
       </c>
     </row>
     <row r="15">
@@ -1009,8 +1274,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B15">
-        <v>1.21397486861767</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1.213974868617672</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1029,10 +1299,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -1041,141 +1316,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.597001553674012</v>
+      <c r="C2">
+        <v>1.597001553673997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.02482745974999578</v>
+      <c r="C3">
+        <v>0.02482745974999806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.004336115482560077</v>
+      <c r="C4">
+        <v>-0.004336115482557939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.08336592688475142</v>
+      <c r="C5">
+        <v>0.08336592688475021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.08492408079394477</v>
+      <c r="C6">
+        <v>-0.08492408079394517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.06194542002852885</v>
+      <c r="C7">
+        <v>0.06194542002852915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>-0.06214314745887584</v>
+      <c r="C8">
+        <v>-0.06214314745887364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.04433990247300909</v>
+      <c r="C9">
+        <v>0.04433990247300816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.144140315704697</v>
+      <c r="C10">
+        <v>-0.1441403157046938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.01082563040423937</v>
+      <c r="C11">
+        <v>0.01082563040424015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.02304115989390476</v>
+      <c r="C12">
+        <v>-0.02304115989390788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.2034862498122336</v>
+      <c r="C13">
+        <v>0.2034862498122347</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.2593217685189324</v>
+      <c r="C14">
+        <v>0.2593217685189386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.1794690299941717</v>
+      <c r="C15">
+        <v>0.1794690299941722</v>
       </c>
     </row>
     <row r="16">
@@ -1184,8 +1529,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.930162057546171</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.9301620575461675</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1204,10 +1554,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -1216,151 +1571,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0.7480876525135649</v>
+      <c r="C2">
+        <v>0.7480876525135316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.02178461163867312</v>
+      <c r="C3">
+        <v>-0.02178461163867349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.05532637751409633</v>
+      <c r="C4">
+        <v>0.0553263775140967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.02458045509976348</v>
+      <c r="C5">
+        <v>0.02458045509976409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.04279333240389183</v>
+      <c r="C6">
+        <v>0.04279333240389284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.02008474416885808</v>
+      <c r="C7">
+        <v>0.02008474416885666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.002854611342675284</v>
+      <c r="C8">
+        <v>0.00285461134267454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.04329762547787164</v>
+      <c r="C9">
+        <v>-0.04329762547787382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.03634849936081874</v>
+      <c r="C10">
+        <v>-0.03634849936082005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.03072068778862389</v>
+      <c r="C11">
+        <v>-0.03072068778862517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.02700299513312005</v>
+      <c r="C12">
+        <v>0.0270029951331172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.1459650995233628</v>
+      <c r="C13">
+        <v>0.1459650995233616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.1926040197142545</v>
+      <c r="C14">
+        <v>0.1926040197142532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.081128537599791</v>
+      <c r="C15">
+        <v>0.08112853759978771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.3038888549199861</v>
+      <c r="C16">
+        <v>0.3038888549199845</v>
       </c>
     </row>
     <row r="17">
@@ -1369,8 +1799,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B17">
-        <v>0.9455099700781317</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.945509970078131</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1389,10 +1824,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -1401,161 +1841,241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2.349320824082867</v>
+      <c r="C2">
+        <v>2.349320824082906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.007672695203660984</v>
+      <c r="C3">
+        <v>-0.00767269520366173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.05850905574991949</v>
+      <c r="C4">
+        <v>-0.05850905574991826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.09553806069789017</v>
+      <c r="C5">
+        <v>0.09553806069789317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.02225161883667137</v>
+      <c r="C6">
+        <v>-0.02225161883667061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.06948862003564371</v>
+      <c r="C7">
+        <v>0.06948862003564456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.005276354860153036</v>
+      <c r="C8">
+        <v>0.005276354860154171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.007949219944141661</v>
+      <c r="C9">
+        <v>-0.007949219944141397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.04271939332274938</v>
+      <c r="C10">
+        <v>-0.04271939332274963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.07418443337396852</v>
+      <c r="C11">
+        <v>0.07418443337396871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.08069921014172687</v>
+      <c r="C12">
+        <v>0.08069921014172818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.004120726700567401</v>
+      <c r="C13">
+        <v>0.004120726700567194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.01302488941689539</v>
+      <c r="C14">
+        <v>0.01302488941689468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.09327092105048029</v>
+      <c r="C15">
+        <v>0.09327092105047899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.0109778818501205</v>
+      <c r="C16">
+        <v>0.0109778818501202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.03623579469399374</v>
+      <c r="C17">
+        <v>-0.03623579469399176</v>
       </c>
     </row>
     <row r="18">
@@ -1564,8 +2084,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B18">
-        <v>1.148045752237831</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1.148045752237836</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +2100,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,10 +2109,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -1596,171 +2126,256 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.96084079625475</v>
+      <c r="C2">
+        <v>1.960840796254736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.03404750033051997</v>
+      <c r="C3">
+        <v>-0.03404750033052097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.03789012458873525</v>
+      <c r="C4">
+        <v>-0.03789012458873457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.04383998709833314</v>
+      <c r="C5">
+        <v>0.04383998709833388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.0333742498627578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.001204529186782932</v>
+      <c r="C7">
+        <v>-0.001204529186783871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.07098127468181688</v>
+      <c r="C8">
+        <v>0.07098127468181728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.09189497816204412</v>
+      <c r="C9">
+        <v>-0.09189497816204316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.01087776400469093</v>
+      <c r="C10">
+        <v>0.01087776400469081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.02574552331384283</v>
+      <c r="C11">
+        <v>0.02574552331384435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.03062952852182577</v>
+      <c r="C12">
+        <v>0.03062952852182475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.01886458786973782</v>
+      <c r="C13">
+        <v>-0.01886458786973794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>-0.1073801584677517</v>
+      <c r="C14">
+        <v>-0.107380158467755</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.1437758846333571</v>
+      <c r="C15">
+        <v>0.143775884633355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.02561631095911213</v>
+      <c r="C16">
+        <v>-0.02561631095911625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.006565469248843436</v>
+      <c r="C17">
+        <v>-0.006565469248845541</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.3187954453434347</v>
+      <c r="C18">
+        <v>0.3187954453434331</v>
       </c>
     </row>
     <row r="19">
@@ -1769,8 +2384,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B19">
-        <v>1.283440718851901</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1.283440718851898</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1789,10 +2409,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -1801,181 +2426,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2.734060336852247</v>
+      <c r="C2">
+        <v>2.734060336852286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.007823209373385182</v>
+      <c r="C3">
+        <v>0.00782320937338477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.04315877611652691</v>
+      <c r="C4">
+        <v>-0.04315877611652506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.02372003370316123</v>
+      <c r="C5">
+        <v>0.02372003370316174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.0610730402268283</v>
+      <c r="C6">
+        <v>-0.06107304022682605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.05325006121102523</v>
+      <c r="C7">
+        <v>0.05325006121102343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.0338096392682411</v>
+      <c r="C8">
+        <v>0.03380963926824048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.03720689856651427</v>
+      <c r="C9">
+        <v>0.03720689856651153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.1604526598045704</v>
+      <c r="C10">
+        <v>-0.1604526598045695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.01830167836702157</v>
+      <c r="C11">
+        <v>0.01830167836702243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.03552802432720872</v>
+      <c r="C12">
+        <v>0.03552802432720954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.007873719175360394</v>
+      <c r="C13">
+        <v>-0.007873719175360911</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.05332989479474304</v>
+      <c r="C14">
+        <v>0.05332989479474422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>-0.01912325733100384</v>
+      <c r="C15">
+        <v>-0.01912325733100328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.06780607931963598</v>
+      <c r="C16">
+        <v>0.06780607931963854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.01777822843309949</v>
+      <c r="C17">
+        <v>-0.01777822843309806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.2165188748833957</v>
+      <c r="C18">
+        <v>0.2165188748833959</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>0.07816922975170382</v>
+      <c r="C19">
+        <v>0.07816922975170081</v>
       </c>
     </row>
     <row r="20">
@@ -1984,8 +2699,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.9672971177741759</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.9672971177741698</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,10 +2724,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -2016,191 +2741,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>-0.03083381501945581</v>
+      <c r="C2">
+        <v>-0.03083381501956952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.0467109412296163</v>
+      <c r="C3">
+        <v>-0.04671094122961668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.007230985699240744</v>
+      <c r="C4">
+        <v>-0.007230985699242072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.05605948256302634</v>
+      <c r="C5">
+        <v>0.05605948256302452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.0849464601982205</v>
+      <c r="C6">
+        <v>0.08494646019822369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.01785502819340712</v>
+      <c r="C7">
+        <v>0.01785502819340677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.08560434568148145</v>
+      <c r="C8">
+        <v>0.08560434568148123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.01641107407347675</v>
+      <c r="C9">
+        <v>0.01641107407347725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.06553033099009076</v>
+      <c r="C10">
+        <v>0.06553033099008997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.02782310598690896</v>
+      <c r="C11">
+        <v>0.02782310598691042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.08147301253499772</v>
+      <c r="C12">
+        <v>0.08147301253499563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.03557569786752768</v>
+      <c r="C13">
+        <v>0.03557569786752891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>-0.02497247266255376</v>
+      <c r="C14">
+        <v>-0.02497247266255148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.152963077473743</v>
+      <c r="C15">
+        <v>0.1529630774737441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.05152954142367872</v>
+      <c r="C16">
+        <v>-0.05152954142367797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>0.002829999555278129</v>
+      <c r="C17">
+        <v>0.002829999555276197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.2069291644627094</v>
+      <c r="C18">
+        <v>0.206929164462707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>0.2852827214595994</v>
+      <c r="C19">
+        <v>0.2852827214595997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.08450816532687533</v>
+      <c r="C20">
+        <v>0.08450816532687268</v>
       </c>
     </row>
     <row r="21">
@@ -2209,8 +3029,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B21">
-        <v>1.000055122351161</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1.000055122351159</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +3045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2229,10 +3054,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -2241,21 +3071,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.953164856595135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.4741133268557887</v>
+      <c r="C3">
+        <v>0.4741133268557893</v>
       </c>
     </row>
     <row r="4">
@@ -2264,8 +3104,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1.161157227503922</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1.161157227503792</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +3120,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2284,10 +3129,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -2296,201 +3146,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>-0.1802455056048182</v>
+      <c r="C2">
+        <v>-0.1802455056048537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.03563345552969754</v>
+      <c r="C3">
+        <v>0.03563345552969573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.03695563029260314</v>
+      <c r="C4">
+        <v>-0.0369556302926044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.05133104624651508</v>
+      <c r="C5">
+        <v>0.05133104624651365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.01549057331825543</v>
+      <c r="C6">
+        <v>-0.01549057331825555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.07309092227010816</v>
+      <c r="C7">
+        <v>0.07309092227010751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>-0.007942884958374252</v>
+      <c r="C8">
+        <v>-0.007942884958373182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.02038535230226599</v>
+      <c r="C9">
+        <v>-0.02038535230226592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.007798551901300854</v>
+      <c r="C10">
+        <v>-0.007798551901299593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.0612869286805669</v>
+      <c r="C11">
+        <v>0.06128692868056594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.01590123478747085</v>
+      <c r="C12">
+        <v>-0.01590123478747127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.04968706155323399</v>
+      <c r="C13">
+        <v>-0.04968706155323629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.0002830448685691434</v>
+      <c r="C14">
+        <v>0.0002830448685666601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.05409864364728523</v>
+      <c r="C15">
+        <v>0.0540986436472853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.05556466043347413</v>
+      <c r="C16">
+        <v>0.05556466043347437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.01556099406400988</v>
+      <c r="C17">
+        <v>-0.01556099406400815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.2651764334185749</v>
+      <c r="C18">
+        <v>0.2651764334185724</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>0.2073505962744808</v>
+      <c r="C19">
+        <v>0.2073505962744818</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.06994263716136762</v>
+      <c r="C20">
+        <v>0.06994263716136602</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.1452259644999927</v>
+      <c r="C21">
+        <v>0.1452259644999942</v>
       </c>
     </row>
     <row r="22">
@@ -2499,8 +3449,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B22">
-        <v>1.078415721186115</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>1.078415721186106</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +3465,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,10 +3474,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -2531,211 +3491,316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2.453916757308234</v>
+      <c r="C2">
+        <v>2.453916757308253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.004154241352175014</v>
+      <c r="C3">
+        <v>-0.004154241352172174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.01302314431358143</v>
+      <c r="C4">
+        <v>0.0130231443135789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>-0.05380201420571756</v>
+      <c r="C5">
+        <v>-0.05380201420571991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.01738035294235202</v>
+      <c r="C6">
+        <v>-0.01738035294234861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.06708478103527116</v>
+      <c r="C7">
+        <v>0.06708478103527332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.02827333969735409</v>
+      <c r="C8">
+        <v>0.02827333969735505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.004713109199748183</v>
+      <c r="C9">
+        <v>-0.004713109199745238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.03149008973436229</v>
+      <c r="C10">
+        <v>0.03149008973436441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.03298917516954469</v>
+      <c r="C11">
+        <v>-0.03298917516954245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.06799111352111031</v>
+      <c r="C12">
+        <v>0.06799111352110727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.08080745669491662</v>
+      <c r="C13">
+        <v>0.08080745669491665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.07399877514333705</v>
+      <c r="C14">
+        <v>0.07399877514333629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>-0.05481889714918242</v>
+      <c r="C15">
+        <v>-0.05481889714918172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.005150556133925233</v>
+      <c r="C16">
+        <v>-0.005150556133925437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.04489236866186039</v>
+      <c r="C17">
+        <v>-0.04489236866185848</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.1138206014550915</v>
+      <c r="C18">
+        <v>0.113820601455091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.08925566112487182</v>
+      <c r="C19">
+        <v>-0.08925566112486862</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.1716834803297692</v>
+      <c r="C20">
+        <v>0.1716834803297682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.01718815758264669</v>
+      <c r="C21">
+        <v>0.01718815758264403</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CSN_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>b20</t>
         </is>
       </c>
-      <c r="B22">
-        <v>-0.04473319401225773</v>
+      <c r="C22">
+        <v>-0.04473319401225596</v>
       </c>
     </row>
     <row r="23">
@@ -2744,8 +3809,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B23">
-        <v>1.112632163894419</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1.112632163894428</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3825,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2764,10 +3834,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -2776,221 +3851,331 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.846900192181114</v>
+      <c r="C2">
+        <v>1.846900192181123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.02162449761238079</v>
+      <c r="C3">
+        <v>-0.02162449761238143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.008388915822029941</v>
+      <c r="C4">
+        <v>0.008388915822029096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>-0.02459599096030718</v>
+      <c r="C5">
+        <v>-0.02459599096030532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.04395093253269294</v>
+      <c r="C6">
+        <v>0.04395093253269645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.001628099782323478</v>
+      <c r="C7">
+        <v>-0.001628099782320372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.08248245965449458</v>
+      <c r="C8">
+        <v>0.0824824596544949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.01544789022183338</v>
+      <c r="C9">
+        <v>-0.01544789022183454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.05120798735036575</v>
+      <c r="C10">
+        <v>0.05120798735036715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.04426308174430138</v>
+      <c r="C11">
+        <v>-0.0442630817443011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.07808348120340181</v>
+      <c r="C12">
+        <v>0.0780834812034024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.04084208978580517</v>
+      <c r="C13">
+        <v>0.04084208978580703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.002327100415322359</v>
+      <c r="C14">
+        <v>0.002327100415327297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.01903832377061454</v>
+      <c r="C15">
+        <v>0.01903832377061225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.006170979582045301</v>
+      <c r="C16">
+        <v>-0.00617097958204371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>0.03356094677232063</v>
+      <c r="C17">
+        <v>0.03356094677231825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.001305785552657257</v>
+      <c r="C18">
+        <v>0.001305785552657128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.02322131537689209</v>
+      <c r="C19">
+        <v>-0.02322131537689076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.09247105814637546</v>
+      <c r="C20">
+        <v>0.09247105814637567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.0508511059561311</v>
+      <c r="C21">
+        <v>0.05085110595612991</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CSN_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>b20</t>
         </is>
       </c>
-      <c r="B22">
-        <v>-0.06097724716037412</v>
+      <c r="C22">
+        <v>-0.06097724716037228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>OPN_I</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>b21</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.2741070872132685</v>
+      <c r="C23">
+        <v>0.2741070872132674</v>
       </c>
     </row>
     <row r="24">
@@ -2999,8 +4184,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1.005019080464314</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1.005019080464313</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +4200,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3019,10 +4209,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3031,231 +4226,346 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2.395484239092344</v>
+      <c r="C2">
+        <v>2.395484239092314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.06196303417591959</v>
+      <c r="C3">
+        <v>0.06196303417591918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.01165376822420319</v>
+      <c r="C4">
+        <v>0.01165376822420371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>-0.03592639494742905</v>
+      <c r="C5">
+        <v>-0.03592639494743604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.06937319870928116</v>
+      <c r="C6">
+        <v>-0.06937319870927759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.05593460125950348</v>
+      <c r="C7">
+        <v>0.05593460125950192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>-0.02018840648553733</v>
+      <c r="C8">
+        <v>-0.02018840648554076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.05528456189680336</v>
+      <c r="C9">
+        <v>0.05528456189680389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.08707684646642144</v>
+      <c r="C10">
+        <v>-0.08707684646641908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.003202378413036833</v>
+      <c r="C11">
+        <v>0.003202378413036002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.01073284126650687</v>
+      <c r="C12">
+        <v>-0.0107328412665066</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.02179143279238927</v>
+      <c r="C13">
+        <v>-0.02179143279239029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.0570589699922113</v>
+      <c r="C14">
+        <v>0.05705896999220697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>-0.01643733186648816</v>
+      <c r="C15">
+        <v>-0.01643733186648772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.08776261412375172</v>
+      <c r="C16">
+        <v>0.08776261412375294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.02912383615994868</v>
+      <c r="C17">
+        <v>-0.02912383615994954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>-0.02223565944550593</v>
+      <c r="C18">
+        <v>-0.02223565944550489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.03369374938794079</v>
+      <c r="C19">
+        <v>-0.03369374938794304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.113430356614352</v>
+      <c r="C20">
+        <v>0.1134303566143537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>-0.07123141073793271</v>
+      <c r="C21">
+        <v>-0.07123141073793691</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CSN_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>b20</t>
         </is>
       </c>
-      <c r="B22">
-        <v>-0.001630763033099836</v>
+      <c r="C22">
+        <v>-0.001630763033099654</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>OPN_I</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>b21</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.1498288802381742</v>
+      <c r="C23">
+        <v>0.1498288802381741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>OPN_II</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>b22</t>
         </is>
       </c>
-      <c r="B24">
-        <v>0.1875129469906298</v>
+      <c r="C24">
+        <v>0.1875129469906237</v>
       </c>
     </row>
     <row r="25">
@@ -3264,8 +4574,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1.009470762325535</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1.009470762325537</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +4590,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3284,10 +4599,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3296,241 +4616,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.262350359056242</v>
+      <c r="C2">
+        <v>1.26235035905634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.02839188683210847</v>
+      <c r="C3">
+        <v>-0.02839188683210671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.007304855802543087</v>
+      <c r="C4">
+        <v>-0.007304855802543521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>-0.04310609775683016</v>
+      <c r="C5">
+        <v>-0.04310609775682897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.01707519084720799</v>
+      <c r="C6">
+        <v>0.01707519084720912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.01271279611467968</v>
+      <c r="C7">
+        <v>0.01271279611467855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.008888533069127846</v>
+      <c r="C8">
+        <v>0.008888533069128202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.005610842815860329</v>
+      <c r="C9">
+        <v>-0.005610842815859714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.01133596364349709</v>
+      <c r="C10">
+        <v>0.01133596364349405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>-0.04353523098753107</v>
+      <c r="C11">
+        <v>-0.04353523098753047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>0.02057367101279869</v>
+      <c r="C12">
+        <v>0.02057367101279752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.004614493885990723</v>
+      <c r="C13">
+        <v>0.004614493885989899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.04683814283473653</v>
+      <c r="C14">
+        <v>0.04683814283473799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.02569419312867649</v>
+      <c r="C15">
+        <v>0.02569419312867931</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.005995103077881314</v>
+      <c r="C16">
+        <v>-0.005995103077881082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>0.0744392408191582</v>
+      <c r="C17">
+        <v>0.07443924081916162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>-0.03212093652363973</v>
+      <c r="C18">
+        <v>-0.03212093652364039</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.009949179037512135</v>
+      <c r="C19">
+        <v>-0.009949179037516451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.009069294709568965</v>
+      <c r="C20">
+        <v>0.009069294709568973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.003110295664153329</v>
+      <c r="C21">
+        <v>0.00311029566415184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CSN_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>b20</t>
         </is>
       </c>
-      <c r="B22">
-        <v>-0.01897059359588425</v>
+      <c r="C22">
+        <v>-0.0189705935958842</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>OPN_I</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>b21</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.04422699857825618</v>
+      <c r="C23">
+        <v>0.04422699857826307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>OPN_II</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>b22</t>
         </is>
       </c>
-      <c r="B24">
-        <v>0.4494309612106484</v>
+      <c r="C24">
+        <v>0.4494309612106467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>OPN_III</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>b23</t>
         </is>
       </c>
-      <c r="B25">
-        <v>0.1421395949277766</v>
+      <c r="C25">
+        <v>0.1421395949277721</v>
       </c>
     </row>
     <row r="26">
@@ -3539,8 +4979,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B26">
-        <v>0.8858272823645838</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>0.8858272823645901</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +4995,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3559,10 +5004,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3571,251 +5021,376 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0.7463328082220855</v>
+      <c r="C2">
+        <v>0.7463328082221202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.0654261198911188</v>
+      <c r="C3">
+        <v>0.06542611989111841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.005811083713943094</v>
+      <c r="C4">
+        <v>-0.005811083713942596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.003890175850891464</v>
+      <c r="C5">
+        <v>0.003890175850894515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.02385347344930144</v>
+      <c r="C6">
+        <v>0.02385347344930278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.06612498612724954</v>
+      <c r="C7">
+        <v>0.06612498612724768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.02308323044945371</v>
+      <c r="C8">
+        <v>0.02308323044945463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.030169307564229</v>
+      <c r="C9">
+        <v>0.03016930756423046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.02537277053830464</v>
+      <c r="C10">
+        <v>0.02537277053830373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EST_IV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>b9</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.02616481345191069</v>
+      <c r="C11">
+        <v>0.02616481345191101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EST_V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>b10</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.02874744414492175</v>
+      <c r="C12">
+        <v>-0.02874744414492157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>AGR_I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B13">
-        <v>-0.02198403529050148</v>
+      <c r="C13">
+        <v>-0.0219840352905019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AGR_II</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.009477431095515798</v>
+      <c r="C14">
+        <v>0.009477431095513189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>AGR_III</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="B15">
-        <v>-0.02620086287134343</v>
+      <c r="C15">
+        <v>-0.02620086287134106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>AGR_IV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0.01224359826338747</v>
+      <c r="C16">
+        <v>0.01224359826338355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AGR_V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>b15</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.0317587210367396</v>
+      <c r="C17">
+        <v>-0.03175872103673653</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CSN_I</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.0733692255364885</v>
+      <c r="C18">
+        <v>0.07336922553649014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CSN_II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.03756645246023482</v>
+      <c r="C19">
+        <v>-0.03756645246023268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CSN_III</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="B20">
-        <v>0.09417198955794431</v>
+      <c r="C20">
+        <v>0.09417198955793961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CSN_IV</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.0503331136299227</v>
+      <c r="C21">
+        <v>0.05033311362992272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CSN_V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>b20</t>
         </is>
       </c>
-      <c r="B22">
-        <v>0.02044846785684124</v>
+      <c r="C22">
+        <v>0.02044846785683793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>OPN_I</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>b21</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.1299892177828965</v>
+      <c r="C23">
+        <v>0.1299892177828951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>OPN_II</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>b22</t>
         </is>
       </c>
-      <c r="B24">
-        <v>0.1101304165181354</v>
+      <c r="C24">
+        <v>0.1101304165181329</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>OPN_III</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>b23</t>
         </is>
       </c>
-      <c r="B25">
-        <v>0.1960022725761244</v>
+      <c r="C25">
+        <v>0.1960022725761331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>OPN_IV</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>b24</t>
         </is>
       </c>
-      <c r="B26">
-        <v>0.0505414176836041</v>
+      <c r="C26">
+        <v>0.05054141768360386</v>
       </c>
     </row>
     <row r="27">
@@ -3824,8 +5399,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B27">
-        <v>0.8527255089786232</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0.8527255089786213</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +5415,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3844,10 +5424,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3856,31 +5441,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.610078999358347</v>
+      <c r="C2">
+        <v>1.610078999358346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.3230912983841416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.2578878713740007</v>
+      <c r="C4">
+        <v>0.2578878713740025</v>
       </c>
     </row>
     <row r="5">
@@ -3889,8 +5489,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B5">
-        <v>1.035477243778336</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1.03547724377843</v>
       </c>
     </row>
   </sheetData>
@@ -3900,7 +5505,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3909,10 +5514,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3921,41 +5531,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0.5031082995449907</v>
+      <c r="C2">
+        <v>0.5031082995449884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.2470461431494555</v>
+      <c r="C3">
+        <v>0.2470461431494556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.328227378099474</v>
+      <c r="C4">
+        <v>0.3282273780994752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.1924763102772715</v>
+      <c r="C5">
+        <v>0.1924763102772742</v>
       </c>
     </row>
     <row r="6">
@@ -3964,8 +5594,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.9194977414925496</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.919497741492457</v>
       </c>
     </row>
   </sheetData>
@@ -3975,7 +5610,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3984,10 +5619,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -3996,51 +5636,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0.6168594703734875</v>
+      <c r="C2">
+        <v>0.6168594703734865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.1565525042050524</v>
+      <c r="C3">
+        <v>0.1565525042050551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.2372792203760796</v>
+      <c r="C4">
+        <v>0.2372792203760799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.3248945254769611</v>
+      <c r="C5">
+        <v>0.3248945254769628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.1464319934226985</v>
+      <c r="C6">
+        <v>0.1464319934226986</v>
       </c>
     </row>
     <row r="7">
@@ -4049,8 +5714,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.955549472609418</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.9555494726094071</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +5730,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4069,10 +5739,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -4081,61 +5756,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.942650084257177</v>
+      <c r="C2">
+        <v>1.942650084257173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.01606150554510166</v>
+      <c r="C3">
+        <v>-0.0160615055451011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.09371928936256424</v>
+      <c r="C4">
+        <v>-0.0937192893625662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.239370773095466</v>
+      <c r="C5">
+        <v>0.2393707730954642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.1093490864364026</v>
+      <c r="C6">
+        <v>0.109349086436402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.0009723182353322812</v>
+      <c r="C7">
+        <v>-0.0009723182353320568</v>
       </c>
     </row>
     <row r="8">
@@ -4144,8 +5849,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1.277116918978329</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1.277116918978319</v>
       </c>
     </row>
   </sheetData>
@@ -4155,7 +5865,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4164,10 +5874,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -4176,71 +5891,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.607217628499333</v>
+      <c r="C2">
+        <v>1.607217628499332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.06372920415016584</v>
+      <c r="C3">
+        <v>0.06372920415016536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.08890570279629539</v>
+      <c r="C4">
+        <v>-0.08890570279629476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.2277087175107764</v>
+      <c r="C5">
+        <v>0.2277087175107795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.09277295577725864</v>
+      <c r="C6">
+        <v>-0.0927729557772593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.02418755534568749</v>
+      <c r="C7">
+        <v>0.0241875553456887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.4126286590328903</v>
+      <c r="C8">
+        <v>0.4126286590328902</v>
       </c>
     </row>
     <row r="9">
@@ -4249,8 +5999,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1.038922758361103</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1.038922758361117</v>
       </c>
     </row>
   </sheetData>
@@ -4260,7 +6015,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4269,10 +6024,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -4281,81 +6041,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0.4105844846664528</v>
+      <c r="C2">
+        <v>0.4105844846664576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.007872485474159197</v>
+      <c r="C3">
+        <v>0.007872485474158539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.01560439085578214</v>
+      <c r="C4">
+        <v>-0.01560439085578152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.0007392339674903159</v>
+      <c r="C5">
+        <v>0.0007392339674914967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0.1050749083273793</v>
+      <c r="C6">
+        <v>0.1050749083273799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.04104982572427231</v>
+      <c r="C7">
+        <v>-0.04104982572427159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.4194366663618956</v>
+      <c r="C8">
+        <v>0.4194366663618952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.1446778079966835</v>
+      <c r="C9">
+        <v>0.1446778079966838</v>
       </c>
     </row>
     <row r="10">
@@ -4364,8 +6164,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.9025363383357299</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.902536338335728</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +6180,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4384,10 +6189,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>varname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>param</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -4396,91 +6206,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b0</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1.246809277238901</v>
+      <c r="C2">
+        <v>1.246809277238898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>EXT_I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>b1</t>
         </is>
       </c>
-      <c r="B3">
-        <v>0.01706435965530049</v>
+      <c r="C3">
+        <v>0.01706435965530085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>EXT_II</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="B4">
-        <v>-0.01535614125738244</v>
+      <c r="C4">
+        <v>-0.01535614125738344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXT_III</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b3</t>
         </is>
       </c>
-      <c r="B5">
-        <v>0.107869592556472</v>
+      <c r="C5">
+        <v>0.1078695925564719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>EXT_IV</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b4</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.01540712601879679</v>
+      <c r="C6">
+        <v>-0.0154071260187969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>EXT_V</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b5</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.03591003805809145</v>
+      <c r="C7">
+        <v>0.03591003805809105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EST_I</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b6</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.08673400890360572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EST_II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>b7</t>
         </is>
       </c>
-      <c r="B9">
-        <v>0.149227118536934</v>
+      <c r="C9">
+        <v>0.1492271185369361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>EST_III</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>b8</t>
         </is>
       </c>
-      <c r="B10">
-        <v>0.134307295439041</v>
+      <c r="C10">
+        <v>0.1343072954390409</v>
       </c>
     </row>
     <row r="11">
@@ -4489,8 +6344,13 @@
           <t>sd</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1.174637650898198</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1.174637650898188</v>
       </c>
     </row>
   </sheetData>
